--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject11.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject11.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.82063710708296711</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.5196803031185232</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -158,7 +158,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.64153224463116953</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.6664973065699219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.8161519136396671</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.83196556648977882</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.97275154077556403</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="0">
-        <v>0</v>
+        <v>0.6805264317916504</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="BA2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.67013448388016128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.52586589497228919</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.92775983118115701</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.51094231565384085</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.67576073591282682</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.91481385574677176</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.71159669988627239</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.74498294302616008</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="0">
-        <v>0</v>
+        <v>0.53323642158946494</v>
       </c>
       <c r="N4" s="0">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="AN4" s="0">
-        <v>0</v>
+        <v>0.82174663774151369</v>
       </c>
       <c r="AO4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.68493004877810648</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.79473363252088991</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.6745868267956483</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="0">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="AM5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.97683603788120854</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.8089553199050209</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.85770940888204339</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.81346494177800144</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="AD6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="0">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.62831768629879581</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.59634374350758046</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.74938790112678522</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>0</v>
+        <v>0.88883443733817147</v>
       </c>
       <c r="K7" s="0">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="0">
-        <v>0</v>
+        <v>0.82383135924426354</v>
       </c>
       <c r="AE7" s="0">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="BO7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.80274474180818078</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.71681385416859245</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.86179024882318322</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.75101290555419986</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="R8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="0">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="0">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.61288856446827122</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="0">
-        <v>0</v>
+        <v>0.62860565602110907</v>
       </c>
       <c r="AS9" s="0">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="BH9" s="0">
-        <v>0</v>
+        <v>0.9979324302179553</v>
       </c>
       <c r="BI9" s="0">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="BK9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="0">
         <v>0</v>
@@ -2000,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>0</v>
+        <v>0.58015978455689576</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.6688052702128322</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.63860975164787881</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="0">
-        <v>0</v>
+        <v>0.7065865316417872</v>
       </c>
       <c r="AH10" s="0">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.53777352679319479</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.97947201057669853</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.5791514994218363</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="0">
-        <v>0</v>
+        <v>0.98600081123979755</v>
       </c>
       <c r="T11" s="0">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="BL11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM11" s="0">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.57489463389013629</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.95962991382173435</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0</v>
+        <v>0.61532807007235402</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="AY12" s="0">
-        <v>0</v>
+        <v>0.87989783535592059</v>
       </c>
       <c r="AZ12" s="0">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="0">
-        <v>0</v>
+        <v>0.76967993289726522</v>
       </c>
       <c r="E13" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.58934580936657155</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.60798656075723378</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.67874066689628099</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="0">
-        <v>0</v>
+        <v>0.57719385096728892</v>
       </c>
       <c r="AS13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.98286168285439335</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.69092717423889227</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.77660396699164602</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.97610898203238794</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="0">
-        <v>0</v>
+        <v>0.86845874059650008</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.60010674842793865</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.76548775063008812</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.86115414069652485</v>
       </c>
       <c r="Q15" s="0">
-        <v>0</v>
+        <v>0.70624884069963167</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.69506858612156464</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.50880473330760378</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.60079344618086472</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0</v>
+        <v>0.88846600285033694</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0</v>
+        <v>0.68897795800093142</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.88497939112484192</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.52924643312352027</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.5766794090261198</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.92142121137273647</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.69780803355738574</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="BF18" s="0">
-        <v>0</v>
+        <v>0.63184698079351009</v>
       </c>
       <c r="BG18" s="0">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="0">
-        <v>0</v>
+        <v>0.89793089922951252</v>
       </c>
       <c r="L19" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.70453088779627981</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.87995389125853318</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.7214539701728504</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.76399688256171849</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.79506081182593202</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="0">
-        <v>0</v>
+        <v>0.50141909935617623</v>
       </c>
       <c r="AQ20" s="0">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="BK20" s="0">
-        <v>0</v>
+        <v>0.69961530074854494</v>
       </c>
       <c r="BL20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.58486508284247574</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="0">
-        <v>0</v>
+        <v>0.78646500446805256</v>
       </c>
       <c r="AJ21" s="0">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="BC21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="0">
         <v>0</v>
@@ -4511,22 +4511,22 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.93694151777501111</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.67548442552873822</v>
       </c>
       <c r="Y22" s="0">
-        <v>0</v>
+        <v>0.93132399293328205</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="0">
-        <v>0</v>
+        <v>0.77204087033858593</v>
       </c>
       <c r="AE22" s="0">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="AN22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.58021775085570004</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.99088897281603416</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.61749289586089073</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="AT23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.54273549672573362</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.67391800877406571</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.56994326332265322</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="BF24" s="0">
-        <v>0</v>
+        <v>0.63415103300770692</v>
       </c>
       <c r="BG24" s="0">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0">
         <v>0</v>
@@ -5135,22 +5135,22 @@
         <v>0</v>
       </c>
       <c r="V25" s="0">
-        <v>0</v>
+        <v>0.52375968655723804</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.81484581774960252</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0</v>
+        <v>0.99442941775102123</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="BL25" s="0">
-        <v>0</v>
+        <v>0.6397610213418089</v>
       </c>
       <c r="BM25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.87797880807668238</v>
       </c>
       <c r="Y26" s="0">
-        <v>0</v>
+        <v>0.59154838109475194</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.53046655715142865</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="0">
-        <v>0</v>
+        <v>0.79256356271707573</v>
       </c>
       <c r="BB26" s="0">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>0</v>
+        <v>0.87419297277718355</v>
       </c>
       <c r="O27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.5738057492641232</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="0">
-        <v>0</v>
+        <v>0.69832973376718344</v>
       </c>
       <c r="M28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.54468989813705582</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.77048677759567141</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.68204820536924271</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.54605841250022658</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.61996397182921203</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6117,10 +6117,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="0">
-        <v>0</v>
+        <v>0.79901518998078469</v>
       </c>
       <c r="H30" s="0">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>0</v>
+        <v>0.74180438859677367</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="0">
-        <v>0</v>
+        <v>0.7710503931183974</v>
       </c>
       <c r="W30" s="0">
         <v>0</v>
@@ -6183,16 +6183,16 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.94677521819551269</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.76414286115066021</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.65830515056912398</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.78307785413707087</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.76511515250511697</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6604,16 +6604,16 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.88036423007468123</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.55209696808156272</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.93050600629039826</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="0">
-        <v>0</v>
+        <v>0.74572321678430264</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="0">
-        <v>0</v>
+        <v>0.60047242156652902</v>
       </c>
       <c r="K33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.71862252216464229</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.81803068659764944</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.59223143207106921</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.62233462126217987</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="AY33" s="0">
-        <v>0</v>
+        <v>0.77692319301364243</v>
       </c>
       <c r="AZ33" s="0">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="BD33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE33" s="0">
         <v>0</v>
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="BN33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO33" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.69950170295365544</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.99301150901232416</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.98360422023897365</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.53408314147858604</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="0">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="0">
-        <v>0</v>
+        <v>0.74618378308364686</v>
       </c>
       <c r="V35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.5309398868352766</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.73896956397055269</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.70162565527222753</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.50366578306129517</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="BD35" s="0">
-        <v>0</v>
+        <v>0.97690625993327485</v>
       </c>
       <c r="BE35" s="0">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="BK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL35" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.92941108018328378</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.79477939188450553</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.6824246299086274</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.57647156567530533</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="BC36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD36" s="0">
         <v>0</v>
@@ -7583,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.75675782911688272</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.60354946626136585</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.65550486805494335</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.93789726883920865</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.56906183794838439</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.80911648352793031</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.91868043096812357</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.62622108465807891</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="BO38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP38" s="0">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>0</v>
+        <v>0.8325217656496352</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.94036179976034084</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.62060280800572154</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.7462036039569202</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="0">
-        <v>0</v>
+        <v>0.78339129876831115</v>
       </c>
       <c r="E40" s="0">
         <v>0</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="0">
         <v>0</v>
@@ -8273,16 +8273,16 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.590719253626107</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="0">
-        <v>0</v>
+        <v>0.92834326201941186</v>
       </c>
       <c r="BB40" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.77269094077638356</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.70186499665594937</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.90515402989251714</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>0</v>
+        <v>0.63026606150814179</v>
       </c>
       <c r="U42" s="0">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>0</v>
+        <v>0.66734558975890534</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
@@ -8694,16 +8694,16 @@
         <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.7903013302556563</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.55487179607344361</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="AH43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.93138871273436363</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.93215081316202353</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.63564733807520324</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.79118980550667817</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="0">
-        <v>0</v>
+        <v>0.99137398669302046</v>
       </c>
       <c r="J44" s="0">
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="0">
-        <v>0</v>
+        <v>0.61081822172336797</v>
       </c>
       <c r="N44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.6493672676494826</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.73163757788093065</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.98671771648736495</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.87310497443054058</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.59648493758698462</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9366,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="BG45" s="0">
-        <v>0</v>
+        <v>0.60116611445500501</v>
       </c>
       <c r="BH45" s="0">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.81872388452882183</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.96355851260891878</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.85152838435133682</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.98569216765438927</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.79171742818801993</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.61259945124007886</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.58195072435560946</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.77635215387012468</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.84664180437618741</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9990,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="BI48" s="0">
-        <v>0</v>
+        <v>0.91533224960156412</v>
       </c>
       <c r="BJ48" s="0">
         <v>0</v>
@@ -10005,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="BN48" s="0">
-        <v>0</v>
+        <v>0.6744888053976732</v>
       </c>
       <c r="BO48" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.51017185252116115</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.71328738520612145</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.56841321130669242</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="BF49" s="0">
-        <v>0</v>
+        <v>0.52908695887870527</v>
       </c>
       <c r="BG49" s="0">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="BI49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ49" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.61587047142578166</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.75270017829148372</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="0">
-        <v>0</v>
+        <v>0.76367568651980977</v>
       </c>
       <c r="M51" s="0">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="0">
-        <v>0</v>
+        <v>0.87828229944835234</v>
       </c>
       <c r="AH51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.777946998776886</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.99673472613799241</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.57749030704968518</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.71620519314152742</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.77905651500637374</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.7777595519413969</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.87111515672734785</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0">
         <v>0</v>
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>0</v>
+        <v>0.88304319282303778</v>
       </c>
       <c r="AA53" s="0">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="0">
-        <v>0</v>
+        <v>0.80645524083518294</v>
       </c>
       <c r="AO53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.82358678533522389</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.91683591051843716</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.73135467208547067</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11199,25 +11199,25 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.81442540082440096</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.81684171896030333</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.62360247021355042</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
       </c>
       <c r="BF54" s="0">
-        <v>0</v>
+        <v>0.99506267482061239</v>
       </c>
       <c r="BG54" s="0">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55" s="0">
         <v>0</v>
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.75643235941666753</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.50235245684438246</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.89218926164786572</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11554,13 +11554,13 @@
         <v>0</v>
       </c>
       <c r="AG56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH56" s="0">
         <v>0</v>
       </c>
       <c r="AI56" s="0">
-        <v>0</v>
+        <v>0.86204433281329762</v>
       </c>
       <c r="AJ56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.51169169892259236</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.86219639242343149</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.71424344293835751</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.69765342435465705</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.98188137681663601</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.90947752109796798</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="0">
-        <v>0</v>
+        <v>0.94083519242447111</v>
       </c>
       <c r="S58" s="0">
         <v>0</v>
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="0">
-        <v>0</v>
+        <v>0.82820164445782485</v>
       </c>
       <c r="Y58" s="0">
         <v>0</v>
@@ -12014,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="AW58" s="0">
-        <v>0</v>
+        <v>0.56396815870029027</v>
       </c>
       <c r="AX58" s="0">
         <v>0</v>
@@ -12029,25 +12029,25 @@
         <v>0</v>
       </c>
       <c r="BB58" s="0">
-        <v>0</v>
+        <v>0.82330902371192605</v>
       </c>
       <c r="BC58" s="0">
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.50861257991789188</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.57908796930902517</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.59062463703606904</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.75760653118619192</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12208,7 +12208,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="0">
-        <v>0</v>
+        <v>0.7565772300078859</v>
       </c>
       <c r="AT59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.89091024961086451</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.65391043002477067</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.96520131659323805</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.64906703989082659</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="0">
-        <v>0</v>
+        <v>0.74706706037513171</v>
       </c>
       <c r="J60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.89091182924704282</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.62160633883360794</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.58022553239448316</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="BO60" s="0">
-        <v>0</v>
+        <v>0.74802160530532302</v>
       </c>
       <c r="BP60" s="0">
         <v>0</v>
@@ -12629,10 +12629,10 @@
         <v>0</v>
       </c>
       <c r="AV61" s="0">
-        <v>0</v>
+        <v>0.63981212667632392</v>
       </c>
       <c r="AW61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.9448457170399116</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.75236940967124533</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.72446488061273451</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.71533543277103528</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.5346725811412596</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.86421951268731312</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.73204840599069065</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12924,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="0">
         <v>0</v>
@@ -12957,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="0">
-        <v>0</v>
+        <v>0.64608451952710322</v>
       </c>
       <c r="U63" s="0">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="0">
         <v>0</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.81560836267824155</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.52463922750467973</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13092,13 +13092,13 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
       </c>
       <c r="BO63" s="0">
-        <v>0</v>
+        <v>0.8480268481597768</v>
       </c>
       <c r="BP63" s="0">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="0">
         <v>0</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="0">
-        <v>0</v>
+        <v>0.84567163131251055</v>
       </c>
       <c r="Z64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.58421110646921903</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13298,16 +13298,16 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.90730277644123336</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
       </c>
       <c r="BP64" s="0">
-        <v>0</v>
+        <v>0.52910091484839961</v>
       </c>
     </row>
     <row r="65">
@@ -13384,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="Y65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.94578101048281571</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.73450245269587211</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.52235238151040841</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13614,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="AG66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH66" s="0">
         <v>0</v>
@@ -13659,7 +13659,7 @@
         <v>0</v>
       </c>
       <c r="AV66" s="0">
-        <v>0</v>
+        <v>0.63336399352882977</v>
       </c>
       <c r="AW66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.730429994378198</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.90667183200529688</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.82934552474692558</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="0">
         <v>0</v>
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="AL67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="0">
         <v>0</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="BH67" s="0">
-        <v>0</v>
+        <v>0.7616182333781345</v>
       </c>
       <c r="BI67" s="0">
         <v>0</v>
@@ -13910,30 +13910,30 @@
         <v>0</v>
       </c>
       <c r="BK67" s="0">
-        <v>0</v>
+        <v>0.98232479015108587</v>
       </c>
       <c r="BL67" s="0">
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.81324198730321884</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.82765498443714736</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.64678571646533722</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.94461392975225622</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.74164300771332559</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14119,16 +14119,16 @@
         <v>0</v>
       </c>
       <c r="BL68" s="0">
-        <v>0</v>
+        <v>0.64031575759279746</v>
       </c>
       <c r="BM68" s="0">
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.90283765699675478</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject11.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject11.xlsx
@@ -134,7 +134,7 @@
         <v>0.82063710708296711</v>
       </c>
       <c r="C1" s="0">
-        <v>0.5196803031185232</v>
+        <v>0.52586589497228919</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -326,21 +326,21 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.64153224463116953</v>
+        <v>0.82934552474692558</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.6664973065699219</v>
+        <v>0.94461392975225622</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.8161519136396671</v>
+        <v>0.82063710708296711</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.83196556648977882</v>
+        <v>0.92775983118115701</v>
       </c>
       <c r="D2" s="0">
         <v>0.97275154077556403</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="0">
-        <v>0.6805264317916504</v>
+        <v>0.8325217656496352</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.67013448388016128</v>
+        <v>0.74164300771332559</v>
       </c>
     </row>
     <row r="3">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.51094231565384085</v>
+        <v>0.71159669988627239</v>
       </c>
       <c r="E3" s="0">
-        <v>0.67576073591282682</v>
+        <v>0.68493004877810648</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.91481385574677176</v>
+        <v>0.97275154077556403</v>
       </c>
       <c r="C4" s="0">
         <v>0.71159669988627239</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0.74498294302616008</v>
+        <v>0.97683603788120854</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="0">
-        <v>0.53323642158946494</v>
+        <v>0.76967993289726522</v>
       </c>
       <c r="N4" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.79473363252088991</v>
+        <v>0.8089553199050209</v>
       </c>
       <c r="G5" s="0">
         <v>0.6745868267956483</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.62831768629879581</v>
+        <v>0.6745868267956483</v>
       </c>
       <c r="F7" s="0">
-        <v>0.59634374350758046</v>
+        <v>0.85770940888204339</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.80274474180818078</v>
+        <v>0.81346494177800144</v>
       </c>
       <c r="G8" s="0">
-        <v>0.71681385416859245</v>
+        <v>0.74938790112678522</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>0.61288856446827122</v>
+        <v>0.86179024882318322</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="0">
-        <v>0.62860565602110907</v>
+        <v>0.99137398669302046</v>
       </c>
       <c r="AS9" s="0">
         <v>0</v>
@@ -2000,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>0.58015978455689576</v>
+        <v>0.88883443733817147</v>
       </c>
       <c r="H10" s="0">
-        <v>0.6688052702128322</v>
+        <v>0.75101290555419986</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0.53777352679319479</v>
+        <v>0.63860975164787881</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0.97947201057669853</v>
       </c>
       <c r="M11" s="0">
-        <v>0.5791514994218363</v>
+        <v>0.58934580936657155</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0.57489463389013629</v>
+        <v>0.97947201057669853</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0.95962991382173435</v>
+        <v>0.98286168285439335</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0.61532807007235402</v>
+        <v>0.69832973376718344</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.60798656075723378</v>
+        <v>0.69092717423889227</v>
       </c>
       <c r="O13" s="0">
         <v>0.67874066689628099</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="0">
-        <v>0.57719385096728892</v>
+        <v>0.61081822172336797</v>
       </c>
       <c r="AS13" s="0">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="0">
-        <v>0.86845874059650008</v>
+        <v>0.87419297277718355</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.60010674842793865</v>
+        <v>0.67874066689628099</v>
       </c>
       <c r="N15" s="0">
-        <v>0.76548775063008812</v>
+        <v>0.77660396699164602</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.69506858612156464</v>
+        <v>0.97610898203238794</v>
       </c>
       <c r="O16" s="0">
-        <v>0.50880473330760378</v>
+        <v>0.86115414069652485</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.68897795800093142</v>
+        <v>0.70624884069963167</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.88497939112484192</v>
+        <v>0.92142121137273647</v>
       </c>
       <c r="S17" s="0">
-        <v>0.52924643312352027</v>
+        <v>0.70453088779627981</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.5766794090261198</v>
+        <v>0.60079344618086472</v>
       </c>
       <c r="Q18" s="0">
         <v>0.92142121137273647</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0.69780803355738574</v>
+        <v>0.7214539701728504</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="BF18" s="0">
-        <v>0.63184698079351009</v>
+        <v>0.94083519242447111</v>
       </c>
       <c r="BG18" s="0">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="0">
-        <v>0.89793089922951252</v>
+        <v>0.98600081123979755</v>
       </c>
       <c r="L19" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0.7214539701728504</v>
       </c>
       <c r="S20" s="0">
-        <v>0.76399688256171849</v>
+        <v>0.87995389125853318</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.79506081182593202</v>
+        <v>0.93694151777501111</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="0">
-        <v>0.50141909935617623</v>
+        <v>0.63026606150814179</v>
       </c>
       <c r="AQ20" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.58021775085570004</v>
+        <v>0.58486508284247574</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0.99088897281603416</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.61749289586089073</v>
+        <v>0.81484581774960252</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4929,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.54273549672573362</v>
+        <v>0.67548442552873822</v>
       </c>
       <c r="W24" s="0">
-        <v>0.67391800877406571</v>
+        <v>0.99088897281603416</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.56994326332265322</v>
+        <v>0.87797880807668238</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="BF24" s="0">
-        <v>0.63415103300770692</v>
+        <v>0.82820164445782485</v>
       </c>
       <c r="BG24" s="0">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="0">
-        <v>0.52375968655723804</v>
+        <v>0.93132399293328205</v>
       </c>
       <c r="W25" s="0">
         <v>0.81484581774960252</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="BL25" s="0">
-        <v>0.6397610213418089</v>
+        <v>0.84567163131251055</v>
       </c>
       <c r="BM25" s="0">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>0.87797880807668238</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.59154838109475194</v>
+        <v>0.99442941775102123</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.53046655715142865</v>
+        <v>0.54468989813705582</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="0">
-        <v>0.79256356271707573</v>
+        <v>0.88304319282303778</v>
       </c>
       <c r="BB26" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.5738057492641232</v>
+        <v>0.68204820536924271</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.77048677759567141</v>
+        <v>0.94677521819551269</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.54605841250022658</v>
+        <v>0.76414286115066021</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.61996397182921203</v>
+        <v>0.65830515056912398</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="0">
-        <v>0.79901518998078469</v>
+        <v>0.82383135924426354</v>
       </c>
       <c r="H30" s="0">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>0.74180438859677367</v>
+        <v>0.88846600285033694</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="0">
-        <v>0.7710503931183974</v>
+        <v>0.77204087033858593</v>
       </c>
       <c r="W30" s="0">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.78307785413707087</v>
+        <v>0.88036423007468123</v>
       </c>
       <c r="AG31" s="0">
         <v>0.76511515250511697</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.55209696808156272</v>
+        <v>0.81803068659764944</v>
       </c>
       <c r="AH32" s="0">
         <v>0.93050600629039826</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="0">
-        <v>0.60047242156652902</v>
+        <v>0.7065865316417872</v>
       </c>
       <c r="K33" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.71862252216464229</v>
+        <v>0.76511515250511697</v>
       </c>
       <c r="AF33" s="0">
         <v>0.81803068659764944</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.59223143207106921</v>
+        <v>0.99301150901232416</v>
       </c>
       <c r="AI33" s="0">
         <v>0.62233462126217987</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="AY33" s="0">
-        <v>0.77692319301364243</v>
+        <v>0.87828229944835234</v>
       </c>
       <c r="AZ33" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.69950170295365544</v>
+        <v>0.93050600629039826</v>
       </c>
       <c r="AG34" s="0">
         <v>0.99301150901232416</v>
@@ -7031,7 +7031,7 @@
         <v>0.98360422023897365</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.53408314147858604</v>
+        <v>0.92941108018328378</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="0">
-        <v>0.74618378308364686</v>
+        <v>0.78646500446805256</v>
       </c>
       <c r="V35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.5309398868352766</v>
+        <v>0.62233462126217987</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.73896956397055269</v>
+        <v>0.98360422023897365</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.70162565527222753</v>
+        <v>0.79477939188450553</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.50366578306129517</v>
+        <v>0.75675782911688272</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7649,16 +7649,16 @@
         <v>0.75675782911688272</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.60354946626136585</v>
+        <v>0.6824246299086274</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.65550486805494335</v>
+        <v>0.80911648352793031</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.93789726883920865</v>
+        <v>0.94036179976034084</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.56906183794838439</v>
+        <v>0.57647156567530533</v>
       </c>
       <c r="AK38" s="0">
         <v>0.80911648352793031</v>
@@ -8067,7 +8067,7 @@
         <v>0.94036179976034084</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.62060280800572154</v>
+        <v>0.91868043096812357</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.7462036039569202</v>
+        <v>0.77269094077638356</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="0">
-        <v>0.78339129876831115</v>
+        <v>0.82174663774151369</v>
       </c>
       <c r="E40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.590719253626107</v>
+        <v>0.62622108465807891</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8491,10 +8491,10 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.70186499665594937</v>
+        <v>0.7903013302556563</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.90515402989251714</v>
+        <v>0.93138871273436363</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>0.66734558975890534</v>
+        <v>0.74572321678430264</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.55487179607344361</v>
+        <v>0.93215081316202353</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8909,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.63564733807520324</v>
+        <v>0.6493672676494826</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.79118980550667817</v>
+        <v>0.98671771648736495</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.73163757788093065</v>
+        <v>0.87310497443054058</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.59648493758698462</v>
+        <v>0.85152838435133682</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9366,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="BG45" s="0">
-        <v>0.60116611445500501</v>
+        <v>0.7565772300078859</v>
       </c>
       <c r="BH45" s="0">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.81872388452882183</v>
+        <v>0.98569216765438927</v>
       </c>
       <c r="AV46" s="0">
         <v>0.96355851260891878</v>
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.58195072435560946</v>
+        <v>0.96355851260891878</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.77635215387012468</v>
+        <v>0.79171742818801993</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.51017185252116115</v>
+        <v>0.61259945124007886</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.71328738520612145</v>
+        <v>0.84664180437618741</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.56841321130669242</v>
+        <v>0.777946998776886</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="BF49" s="0">
-        <v>0.52908695887870527</v>
+        <v>0.56396815870029027</v>
       </c>
       <c r="BG49" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0.61587047142578166</v>
+        <v>0.99673472613799241</v>
       </c>
       <c r="AZ50" s="0">
         <v>0.75270017829148372</v>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="0">
-        <v>0.76367568651980977</v>
+        <v>0.87989783535592059</v>
       </c>
       <c r="M51" s="0">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.57749030704968518</v>
+        <v>0.77905651500637374</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.71620519314152742</v>
+        <v>0.75270017829148372</v>
       </c>
       <c r="AY52" s="0">
         <v>0.77905651500637374</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.7777595519413969</v>
+        <v>0.82358678533522389</v>
       </c>
       <c r="BB52" s="0">
         <v>0.87111515672734785</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="0">
-        <v>0.80645524083518294</v>
+        <v>0.92834326201941186</v>
       </c>
       <c r="AO53" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0.91683591051843716</v>
       </c>
       <c r="BC53" s="0">
-        <v>0.73135467208547067</v>
+        <v>0.75643235941666753</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11199,10 +11199,10 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.81442540082440096</v>
+        <v>0.87111515672734785</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.81684171896030333</v>
+        <v>0.91683591051843716</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.50235245684438246</v>
+        <v>0.86219639242343149</v>
       </c>
       <c r="BE55" s="0">
         <v>0.89218926164786572</v>
@@ -11560,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="AI56" s="0">
-        <v>0.86204433281329762</v>
+        <v>0.97690625993327485</v>
       </c>
       <c r="AJ56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.51169169892259236</v>
+        <v>0.62360247021355042</v>
       </c>
       <c r="BC56" s="0">
         <v>0.86219639242343149</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.69765342435465705</v>
+        <v>0.89218926164786572</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -12029,25 +12029,25 @@
         <v>0</v>
       </c>
       <c r="BB58" s="0">
-        <v>0.82330902371192605</v>
+        <v>0.99506267482061239</v>
       </c>
       <c r="BC58" s="0">
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.50861257991789188</v>
+        <v>0.71424344293835751</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.57908796930902517</v>
+        <v>0.98188137681663601</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.59062463703606904</v>
+        <v>0.65391043002477067</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.75760653118619192</v>
+        <v>0.89091182924704282</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.89091024961086451</v>
+        <v>0.90947752109796798</v>
       </c>
       <c r="BF59" s="0">
         <v>0.65391043002477067</v>
@@ -12256,7 +12256,7 @@
         <v>0.96520131659323805</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.64906703989082659</v>
+        <v>0.9448457170399116</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="0">
-        <v>0.74706706037513171</v>
+        <v>0.9979324302179553</v>
       </c>
       <c r="J60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0.89091182924704282</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.62160633883360794</v>
+        <v>0.96520131659323805</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.58022553239448316</v>
+        <v>0.71533543277103528</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="BO60" s="0">
-        <v>0.74802160530532302</v>
+        <v>0.7616182333781345</v>
       </c>
       <c r="BP60" s="0">
         <v>0</v>
@@ -12629,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="AV61" s="0">
-        <v>0.63981212667632392</v>
+        <v>0.91533224960156412</v>
       </c>
       <c r="AW61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0.75236940967124533</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.72446488061273451</v>
+        <v>0.81560836267824155</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0.71533543277103528</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.5346725811412596</v>
+        <v>0.75236940967124533</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12957,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="0">
-        <v>0.64608451952710322</v>
+        <v>0.69961530074854494</v>
       </c>
       <c r="U63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0.81560836267824155</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.52463922750467973</v>
+        <v>0.86421951268731312</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13098,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="BO63" s="0">
-        <v>0.8480268481597768</v>
+        <v>0.98232479015108587</v>
       </c>
       <c r="BP63" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.58421110646921903</v>
+        <v>0.73204840599069065</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.90730277644123336</v>
+        <v>0.94578101048281571</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13307,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="BP64" s="0">
-        <v>0.52910091484839961</v>
+        <v>0.64031575759279746</v>
       </c>
     </row>
     <row r="65">
@@ -13510,7 +13510,7 @@
         <v>0.73450245269587211</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.52235238151040841</v>
+        <v>0.81324198730321884</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13659,7 +13659,7 @@
         <v>0</v>
       </c>
       <c r="AV66" s="0">
-        <v>0.63336399352882977</v>
+        <v>0.6744888053976732</v>
       </c>
       <c r="AW66" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.730429994378198</v>
+        <v>0.73450245269587211</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13919,13 +13919,13 @@
         <v>0.81324198730321884</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.82765498443714736</v>
+        <v>0.90667183200529688</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.64678571646533722</v>
+        <v>0.90283765699675478</v>
       </c>
     </row>
     <row r="68">
